--- a/dna-methylation/scripts/develop/epityper/betas/plot/scatter_comparison_rows.xlsx
+++ b/dna-methylation/scripts/develop/epityper/betas/plot/scatter_comparison_rows.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>begins</t>
   </si>
@@ -45,7 +45,13 @@
     <t>FIGN_CORTO5_CpG_9</t>
   </si>
   <si>
-    <t>FIGN_CORTO5_CpG_3</t>
+    <t>FIGN_CORTO5_CpG_11</t>
+  </si>
+  <si>
+    <t>FIGN_CORTO5_CpG_12</t>
+  </si>
+  <si>
+    <t>FIGN_CORTO5_CpG_13</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -434,7 +443,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -445,7 +454,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -456,7 +465,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
